--- a/dataanalysis/data/predictions/1000/09160943_0945.xlsx
+++ b/dataanalysis/data/predictions/1000/09160943_0945.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="146">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-16</t>
   </si>
   <si>
@@ -449,12 +452,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -812,13 +809,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AI46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,19 +918,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-0.2</v>
@@ -951,7 +951,7 @@
         <v>51885.92</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -993,10 +993,25 @@
         <v>-0.04</v>
       </c>
       <c r="X2" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y2">
+        <v>-1.25</v>
+      </c>
+      <c r="Z2">
+        <v>15.28</v>
+      </c>
+      <c r="AA2">
+        <v>1.33</v>
       </c>
       <c r="AC2" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1004,22 +1019,25 @@
       <c r="AG2">
         <v>4.08788013458252</v>
       </c>
-      <c r="AH2" t="s">
-        <v>145</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>10.5</v>
@@ -1037,7 +1055,7 @@
         <v>159411.52</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>6</v>
@@ -1079,10 +1097,25 @@
         <v>0.66</v>
       </c>
       <c r="X3" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="Y3">
+        <v>5.9</v>
+      </c>
+      <c r="Z3">
+        <v>73</v>
+      </c>
+      <c r="AA3">
+        <v>22.11</v>
       </c>
       <c r="AC3" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1090,22 +1123,25 @@
       <c r="AG3">
         <v>0.3619394302368164</v>
       </c>
-      <c r="AH3" t="s">
-        <v>145</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300014</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-0.87</v>
@@ -1123,7 +1159,7 @@
         <v>180044.43</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1164,8 +1200,23 @@
       <c r="W4">
         <v>-0.13</v>
       </c>
+      <c r="Y4">
+        <v>0.57</v>
+      </c>
+      <c r="Z4">
+        <v>75.64</v>
+      </c>
+      <c r="AA4">
+        <v>3.22</v>
+      </c>
       <c r="AC4" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1173,22 +1224,25 @@
       <c r="AG4">
         <v>3.981023788452148</v>
       </c>
-      <c r="AH4" t="s">
-        <v>145</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300043</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>16.22</v>
@@ -1206,7 +1260,7 @@
         <v>112799.81</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1247,8 +1301,23 @@
       <c r="W5">
         <v>-0.51</v>
       </c>
+      <c r="Y5">
+        <v>-0.26</v>
+      </c>
+      <c r="Z5">
+        <v>8.19</v>
+      </c>
+      <c r="AA5">
+        <v>5.81</v>
+      </c>
       <c r="AC5" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1256,22 +1325,25 @@
       <c r="AG5">
         <v>-2.275631904602051</v>
       </c>
-      <c r="AH5" t="s">
-        <v>145</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300049</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.3</v>
@@ -1289,7 +1361,7 @@
         <v>54874.97</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1331,10 +1403,25 @@
         <v>-0.02</v>
       </c>
       <c r="X6" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="Y6">
+        <v>2.36</v>
+      </c>
+      <c r="Z6">
+        <v>89.19</v>
+      </c>
+      <c r="AA6">
+        <v>8.119999999999999</v>
       </c>
       <c r="AC6" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1342,22 +1429,25 @@
       <c r="AG6">
         <v>3.370382070541382</v>
       </c>
-      <c r="AH6" t="s">
-        <v>145</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300139</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>0.91</v>
@@ -1375,7 +1465,7 @@
         <v>58777.7</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -1417,10 +1507,25 @@
         <v>-0.45</v>
       </c>
       <c r="X7" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="Y7">
+        <v>-3.2</v>
+      </c>
+      <c r="Z7">
+        <v>28.1</v>
+      </c>
+      <c r="AA7">
+        <v>5.64</v>
       </c>
       <c r="AC7" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1428,22 +1533,25 @@
       <c r="AG7">
         <v>4.922688961029053</v>
       </c>
-      <c r="AH7" t="s">
-        <v>145</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300223</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0.54</v>
@@ -1461,7 +1569,7 @@
         <v>60655.32</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1502,8 +1610,23 @@
       <c r="W8">
         <v>0.01</v>
       </c>
+      <c r="Y8">
+        <v>-0.75</v>
+      </c>
+      <c r="Z8">
+        <v>84.2</v>
+      </c>
+      <c r="AA8">
+        <v>0.18</v>
+      </c>
       <c r="AC8" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1511,22 +1634,25 @@
       <c r="AG8">
         <v>7.557631015777588</v>
       </c>
-      <c r="AH8" t="s">
-        <v>145</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300237</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-3.77</v>
@@ -1544,7 +1670,7 @@
         <v>25557.95</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1586,10 +1712,25 @@
         <v>0.14</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="Y9">
+        <v>0.53</v>
+      </c>
+      <c r="Z9">
+        <v>3.9</v>
+      </c>
+      <c r="AA9">
+        <v>1.83</v>
       </c>
       <c r="AC9" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1597,22 +1738,25 @@
       <c r="AG9">
         <v>0.7232708930969238</v>
       </c>
-      <c r="AH9" t="s">
-        <v>145</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300252</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>5.09</v>
@@ -1630,7 +1774,7 @@
         <v>76251.08</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1672,10 +1816,25 @@
         <v>-0.32</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="Y10">
+        <v>-1.67</v>
+      </c>
+      <c r="Z10">
+        <v>16.61</v>
+      </c>
+      <c r="AA10">
+        <v>1.84</v>
       </c>
       <c r="AC10" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1683,22 +1842,25 @@
       <c r="AG10">
         <v>-3.98357081413269</v>
       </c>
-      <c r="AH10" t="s">
-        <v>145</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300274</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0.43</v>
@@ -1716,7 +1878,7 @@
         <v>321834.65</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1758,10 +1920,25 @@
         <v>-0.01</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="Y11">
+        <v>0.48</v>
+      </c>
+      <c r="Z11">
+        <v>144.24</v>
+      </c>
+      <c r="AA11">
+        <v>5.09</v>
       </c>
       <c r="AC11" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1769,22 +1946,25 @@
       <c r="AG11">
         <v>97.12833404541016</v>
       </c>
-      <c r="AH11" t="s">
-        <v>145</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300290</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.45</v>
@@ -1802,7 +1982,7 @@
         <v>50047.41</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12">
         <v>6</v>
@@ -1844,10 +2024,25 @@
         <v>0.03</v>
       </c>
       <c r="X12" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="Y12">
+        <v>-1.22</v>
+      </c>
+      <c r="Z12">
+        <v>32.28</v>
+      </c>
+      <c r="AA12">
+        <v>2.57</v>
       </c>
       <c r="AC12" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1855,22 +2050,25 @@
       <c r="AG12">
         <v>4.286761283874512</v>
       </c>
-      <c r="AH12" t="s">
-        <v>145</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300324</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1888,7 +2086,7 @@
         <v>44665.87</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -1930,10 +2128,25 @@
         <v>-0.17</v>
       </c>
       <c r="X13" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="Y13">
+        <v>3.54</v>
+      </c>
+      <c r="Z13">
+        <v>7.81</v>
+      </c>
+      <c r="AA13">
+        <v>7.72</v>
       </c>
       <c r="AC13" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1941,22 +2154,25 @@
       <c r="AG13">
         <v>2.152538537979126</v>
       </c>
-      <c r="AH13" t="s">
-        <v>145</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300331</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.76</v>
@@ -1974,7 +2190,7 @@
         <v>26886.14</v>
       </c>
       <c r="J14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -2016,10 +2232,25 @@
         <v>-0.16</v>
       </c>
       <c r="X14" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y14">
+        <v>14.66</v>
+      </c>
+      <c r="Z14">
+        <v>40.26</v>
+      </c>
+      <c r="AA14">
+        <v>24.49</v>
       </c>
       <c r="AC14" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2027,22 +2258,25 @@
       <c r="AG14">
         <v>1.467081308364868</v>
       </c>
-      <c r="AH14" t="s">
-        <v>145</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300363</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-1.75</v>
@@ -2060,7 +2294,7 @@
         <v>20316.39</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2102,10 +2336,25 @@
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="Y15">
+        <v>-0.93</v>
+      </c>
+      <c r="Z15">
+        <v>28.35</v>
+      </c>
+      <c r="AA15">
+        <v>0.93</v>
       </c>
       <c r="AC15" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2113,22 +2362,25 @@
       <c r="AG15">
         <v>12.2133092880249</v>
       </c>
-      <c r="AH15" t="s">
-        <v>145</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300428</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.74</v>
@@ -2146,7 +2398,7 @@
         <v>19974.08</v>
       </c>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16">
         <v>5</v>
@@ -2187,8 +2439,23 @@
       <c r="W16">
         <v>0.05</v>
       </c>
+      <c r="Y16">
+        <v>-3.7</v>
+      </c>
+      <c r="Z16">
+        <v>25.41</v>
+      </c>
+      <c r="AA16">
+        <v>3.12</v>
+      </c>
       <c r="AC16" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2196,22 +2463,25 @@
       <c r="AG16">
         <v>0.7185282707214355</v>
       </c>
-      <c r="AH16" t="s">
-        <v>145</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300450</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.45</v>
@@ -2229,7 +2499,7 @@
         <v>227740.11</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>13</v>
@@ -2271,10 +2541,25 @@
         <v>-0.22</v>
       </c>
       <c r="X17" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y17">
+        <v>-2.6</v>
+      </c>
+      <c r="Z17">
+        <v>54.98</v>
+      </c>
+      <c r="AA17">
+        <v>-1.54</v>
       </c>
       <c r="AC17" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2282,22 +2567,25 @@
       <c r="AG17">
         <v>1.423238158226013</v>
       </c>
-      <c r="AH17" t="s">
-        <v>145</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300457</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.86</v>
@@ -2315,7 +2603,7 @@
         <v>55773.3</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18">
         <v>11</v>
@@ -2357,10 +2645,25 @@
         <v>-0.03</v>
       </c>
       <c r="X18" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="Y18">
+        <v>5.94</v>
+      </c>
+      <c r="Z18">
+        <v>37.9</v>
+      </c>
+      <c r="AA18">
+        <v>12.83</v>
       </c>
       <c r="AC18" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2368,22 +2671,25 @@
       <c r="AG18">
         <v>13.89359664916992</v>
       </c>
-      <c r="AH18" t="s">
-        <v>145</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300475</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-1.36</v>
@@ -2401,7 +2707,7 @@
         <v>91514.66</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -2443,10 +2749,25 @@
         <v>-0.12</v>
       </c>
       <c r="X19" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="Y19">
+        <v>4.31</v>
+      </c>
+      <c r="Z19">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AA19">
+        <v>7.29</v>
       </c>
       <c r="AC19" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2454,22 +2775,25 @@
       <c r="AG19">
         <v>4.843817710876465</v>
       </c>
-      <c r="AH19" t="s">
-        <v>145</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300476</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>5.66</v>
@@ -2487,7 +2811,7 @@
         <v>684033.1800000001</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K20">
         <v>70</v>
@@ -2529,10 +2853,25 @@
         <v>0.04</v>
       </c>
       <c r="X20" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y20">
+        <v>-3.78</v>
+      </c>
+      <c r="Z20">
+        <v>350.99</v>
+      </c>
+      <c r="AA20">
+        <v>0.8</v>
       </c>
       <c r="AC20" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2540,22 +2879,25 @@
       <c r="AG20">
         <v>6.051711082458496</v>
       </c>
-      <c r="AH20" t="s">
-        <v>145</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300528</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-2.95</v>
@@ -2573,7 +2915,7 @@
         <v>53404.82</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -2615,10 +2957,25 @@
         <v>-0.5</v>
       </c>
       <c r="X21" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y21">
+        <v>-7.38</v>
+      </c>
+      <c r="Z21">
+        <v>30.5</v>
+      </c>
+      <c r="AA21">
+        <v>-2.4</v>
       </c>
       <c r="AC21" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2626,22 +2983,25 @@
       <c r="AG21">
         <v>0.5553255677223206</v>
       </c>
-      <c r="AH21" t="s">
-        <v>145</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300680</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>3.81</v>
@@ -2659,7 +3019,7 @@
         <v>44987.9</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2701,10 +3061,25 @@
         <v>0.36</v>
       </c>
       <c r="X22" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y22">
+        <v>6.68</v>
+      </c>
+      <c r="Z22">
+        <v>67.5</v>
+      </c>
+      <c r="AA22">
+        <v>8.210000000000001</v>
       </c>
       <c r="AC22" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2712,22 +3087,25 @@
       <c r="AG22">
         <v>1.429253935813904</v>
       </c>
-      <c r="AH22" t="s">
-        <v>145</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300852</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-0.63</v>
@@ -2745,7 +3123,7 @@
         <v>10584</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -2787,10 +3165,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X23" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y23">
+        <v>6.35</v>
+      </c>
+      <c r="Z23">
+        <v>48.86</v>
+      </c>
+      <c r="AA23">
+        <v>6.63</v>
       </c>
       <c r="AC23" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2798,22 +3191,25 @@
       <c r="AG23">
         <v>4.883145809173584</v>
       </c>
-      <c r="AH23" t="s">
-        <v>145</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300857</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2.47</v>
@@ -2831,7 +3227,7 @@
         <v>87386.53</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K24">
         <v>18</v>
@@ -2872,8 +3268,23 @@
       <c r="W24">
         <v>-0.01</v>
       </c>
+      <c r="Y24">
+        <v>6.76</v>
+      </c>
+      <c r="Z24">
+        <v>167.77</v>
+      </c>
+      <c r="AA24">
+        <v>17.95</v>
+      </c>
       <c r="AC24" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2881,22 +3292,25 @@
       <c r="AG24">
         <v>5.324585914611816</v>
       </c>
-      <c r="AH24" t="s">
-        <v>145</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300859</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.47</v>
@@ -2914,7 +3328,7 @@
         <v>26184.26</v>
       </c>
       <c r="J25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2956,10 +3370,25 @@
         <v>-0.19</v>
       </c>
       <c r="X25" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y25">
+        <v>-3.95</v>
+      </c>
+      <c r="Z25">
+        <v>52.48</v>
+      </c>
+      <c r="AA25">
+        <v>0.31</v>
       </c>
       <c r="AC25" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2967,22 +3396,25 @@
       <c r="AG25">
         <v>1.888573050498962</v>
       </c>
-      <c r="AH25" t="s">
-        <v>145</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300918</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>5.97</v>
@@ -3000,7 +3432,7 @@
         <v>60924.13</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3042,10 +3474,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X26" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y26">
+        <v>-4.35</v>
+      </c>
+      <c r="Z26">
+        <v>26.2</v>
+      </c>
+      <c r="AA26">
+        <v>4.67</v>
       </c>
       <c r="AC26" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3053,22 +3500,25 @@
       <c r="AG26">
         <v>7.638608932495117</v>
       </c>
-      <c r="AH26" t="s">
-        <v>145</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300953</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>4.39</v>
@@ -3086,7 +3536,7 @@
         <v>56697.99</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27">
         <v>15</v>
@@ -3128,10 +3578,25 @@
         <v>0.14</v>
       </c>
       <c r="X27" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y27">
+        <v>0.01</v>
+      </c>
+      <c r="Z27">
+        <v>181</v>
+      </c>
+      <c r="AA27">
+        <v>8.42</v>
       </c>
       <c r="AC27" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3139,22 +3604,25 @@
       <c r="AG27">
         <v>0.6104161143302917</v>
       </c>
-      <c r="AH27" t="s">
-        <v>145</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301076</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-1.59</v>
@@ -3172,7 +3640,7 @@
         <v>29606.87</v>
       </c>
       <c r="J28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K28">
         <v>7</v>
@@ -3214,10 +3682,25 @@
         <v>-0.34</v>
       </c>
       <c r="X28" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y28">
+        <v>1.92</v>
+      </c>
+      <c r="Z28">
+        <v>66.48</v>
+      </c>
+      <c r="AA28">
+        <v>8.470000000000001</v>
       </c>
       <c r="AC28" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3225,22 +3708,25 @@
       <c r="AG28">
         <v>1.614499688148499</v>
       </c>
-      <c r="AH28" t="s">
-        <v>145</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301150</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-3.57</v>
@@ -3258,7 +3744,7 @@
         <v>38339.27</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29">
         <v>11</v>
@@ -3300,10 +3786,25 @@
         <v>0.18</v>
       </c>
       <c r="X29" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y29">
+        <v>-1.6</v>
+      </c>
+      <c r="Z29">
+        <v>42.87</v>
+      </c>
+      <c r="AA29">
+        <v>1.23</v>
       </c>
       <c r="AC29" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3311,22 +3812,25 @@
       <c r="AG29">
         <v>1.885188221931458</v>
       </c>
-      <c r="AH29" t="s">
-        <v>145</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301307</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>11.5</v>
@@ -3344,7 +3848,7 @@
         <v>42870.55</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -3385,8 +3889,23 @@
       <c r="W30">
         <v>0.43</v>
       </c>
+      <c r="Y30">
+        <v>-3.17</v>
+      </c>
+      <c r="Z30">
+        <v>42.12</v>
+      </c>
+      <c r="AA30">
+        <v>12.26</v>
+      </c>
       <c r="AC30" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3394,22 +3913,25 @@
       <c r="AG30">
         <v>2.501672744750977</v>
       </c>
-      <c r="AH30" t="s">
-        <v>145</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301377</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>2.22</v>
@@ -3427,7 +3949,7 @@
         <v>16458.03</v>
       </c>
       <c r="J31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K31">
         <v>5</v>
@@ -3469,10 +3991,25 @@
         <v>0.3</v>
       </c>
       <c r="X31" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y31">
+        <v>-1.27</v>
+      </c>
+      <c r="Z31">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="AA31">
+        <v>-2.76</v>
       </c>
       <c r="AC31" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3480,22 +4017,25 @@
       <c r="AG31">
         <v>1.735817790031433</v>
       </c>
-      <c r="AH31" t="s">
-        <v>145</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301389</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>6.62</v>
@@ -3513,7 +4053,7 @@
         <v>58282.04</v>
       </c>
       <c r="J32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3555,10 +4095,25 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="X32" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y32">
+        <v>-4.38</v>
+      </c>
+      <c r="Z32">
+        <v>70.2</v>
+      </c>
+      <c r="AA32">
+        <v>-0.24</v>
       </c>
       <c r="AC32" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3566,22 +4121,25 @@
       <c r="AG32">
         <v>4.267797470092773</v>
       </c>
-      <c r="AH32" t="s">
-        <v>145</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301413</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1.41</v>
@@ -3599,7 +4157,7 @@
         <v>25384.35</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K33">
         <v>18</v>
@@ -3641,10 +4199,25 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X33" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y33">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="Z33">
+        <v>200.15</v>
+      </c>
+      <c r="AA33">
+        <v>31.5</v>
       </c>
       <c r="AC33" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3652,22 +4225,25 @@
       <c r="AG33">
         <v>1.935078263282776</v>
       </c>
-      <c r="AH33" t="s">
-        <v>145</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301488</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>6.02</v>
@@ -3685,7 +4261,7 @@
         <v>64866.24</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K34">
         <v>15</v>
@@ -3727,10 +4303,25 @@
         <v>-0.5</v>
       </c>
       <c r="X34" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y34">
+        <v>14.22</v>
+      </c>
+      <c r="Z34">
+        <v>222.22</v>
+      </c>
+      <c r="AA34">
+        <v>17.65</v>
       </c>
       <c r="AC34" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3738,22 +4329,25 @@
       <c r="AG34">
         <v>1.072771668434143</v>
       </c>
-      <c r="AH34" t="s">
-        <v>145</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>688028</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.36</v>
@@ -3771,7 +4365,7 @@
         <v>18306.14</v>
       </c>
       <c r="J35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K35">
         <v>7</v>
@@ -3812,8 +4406,23 @@
       <c r="W35">
         <v>-0.14</v>
       </c>
+      <c r="Y35">
+        <v>-3.06</v>
+      </c>
+      <c r="Z35">
+        <v>43.9</v>
+      </c>
+      <c r="AA35">
+        <v>-3.73</v>
+      </c>
       <c r="AC35" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3821,22 +4430,25 @@
       <c r="AG35">
         <v>1.943967700004578</v>
       </c>
-      <c r="AH35" t="s">
-        <v>145</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>688041</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>5.66</v>
@@ -3854,7 +4466,7 @@
         <v>444324.81</v>
       </c>
       <c r="J36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3896,10 +4508,25 @@
         <v>-0.01</v>
       </c>
       <c r="X36" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y36">
+        <v>-1.35</v>
+      </c>
+      <c r="Z36">
+        <v>244.97</v>
+      </c>
+      <c r="AA36">
+        <v>0.15</v>
       </c>
       <c r="AC36" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>1</v>
@@ -3907,22 +4534,25 @@
       <c r="AG36">
         <v>39.85919952392578</v>
       </c>
-      <c r="AH36" t="s">
-        <v>145</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688141</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0.87</v>
@@ -3940,7 +4570,7 @@
         <v>23849.76</v>
       </c>
       <c r="J37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37">
         <v>10</v>
@@ -3982,10 +4612,25 @@
         <v>-0.03</v>
       </c>
       <c r="X37" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y37">
+        <v>-3.26</v>
+      </c>
+      <c r="Z37">
+        <v>52.64</v>
+      </c>
+      <c r="AA37">
+        <v>0.36</v>
       </c>
       <c r="AC37" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3993,22 +4638,25 @@
       <c r="AG37">
         <v>3.070248603820801</v>
       </c>
-      <c r="AH37" t="s">
-        <v>145</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688147</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.17</v>
@@ -4026,7 +4674,7 @@
         <v>13717.8</v>
       </c>
       <c r="J38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K38">
         <v>22</v>
@@ -4067,8 +4715,23 @@
       <c r="W38">
         <v>-0.06</v>
       </c>
+      <c r="Y38">
+        <v>3.02</v>
+      </c>
+      <c r="Z38">
+        <v>50.99</v>
+      </c>
+      <c r="AA38">
+        <v>7.51</v>
+      </c>
       <c r="AC38" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
       <c r="AF38">
         <v>1</v>
@@ -4076,22 +4739,25 @@
       <c r="AG38">
         <v>3.505042314529419</v>
       </c>
-      <c r="AH38" t="s">
-        <v>145</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688167</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-0.9</v>
@@ -4109,7 +4775,7 @@
         <v>22628.67</v>
       </c>
       <c r="J39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -4151,10 +4817,25 @@
         <v>-0.03</v>
       </c>
       <c r="X39" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="Y39">
+        <v>6.65</v>
+      </c>
+      <c r="Z39">
+        <v>181.5</v>
+      </c>
+      <c r="AA39">
+        <v>14.12</v>
       </c>
       <c r="AC39" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4162,22 +4843,25 @@
       <c r="AG39">
         <v>5.842306613922119</v>
       </c>
-      <c r="AH39" t="s">
-        <v>145</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688195</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>2.6</v>
@@ -4195,7 +4879,7 @@
         <v>36254.01</v>
       </c>
       <c r="J40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40">
         <v>22</v>
@@ -4237,10 +4921,25 @@
         <v>0.03</v>
       </c>
       <c r="X40" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y40">
+        <v>-0.84</v>
+      </c>
+      <c r="Z40">
+        <v>116.6</v>
+      </c>
+      <c r="AA40">
+        <v>3.31</v>
       </c>
       <c r="AC40" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4248,22 +4947,25 @@
       <c r="AG40">
         <v>5.740499019622803</v>
       </c>
-      <c r="AH40" t="s">
-        <v>145</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688202</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-1.31</v>
@@ -4281,7 +4983,7 @@
         <v>12967.35</v>
       </c>
       <c r="J41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41">
         <v>4</v>
@@ -4323,10 +5025,25 @@
         <v>-0.09</v>
       </c>
       <c r="X41" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y41">
+        <v>-5.41</v>
+      </c>
+      <c r="Z41">
+        <v>80.93000000000001</v>
+      </c>
+      <c r="AA41">
+        <v>1.11</v>
       </c>
       <c r="AC41" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>1</v>
@@ -4334,22 +5051,25 @@
       <c r="AG41">
         <v>12.21921253204346</v>
       </c>
-      <c r="AH41" t="s">
-        <v>145</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688228</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-1.72</v>
@@ -4367,7 +5087,7 @@
         <v>32797.75</v>
       </c>
       <c r="J42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K42">
         <v>5</v>
@@ -4409,10 +5129,25 @@
         <v>-0.02</v>
       </c>
       <c r="X42" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y42">
+        <v>0.55</v>
+      </c>
+      <c r="Z42">
+        <v>185</v>
+      </c>
+      <c r="AA42">
+        <v>2.86</v>
       </c>
       <c r="AC42" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4420,22 +5155,25 @@
       <c r="AG42">
         <v>8.71428394317627</v>
       </c>
-      <c r="AH42" t="s">
-        <v>145</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688256</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>1.44</v>
@@ -4453,7 +5191,7 @@
         <v>399570.59</v>
       </c>
       <c r="J43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4495,10 +5233,25 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y43">
+        <v>0.13</v>
+      </c>
+      <c r="Z43">
+        <v>1470.02</v>
+      </c>
+      <c r="AA43">
+        <v>0.63</v>
       </c>
       <c r="AC43" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4506,22 +5259,25 @@
       <c r="AG43">
         <v>5.444374084472656</v>
       </c>
-      <c r="AH43" t="s">
-        <v>145</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688411</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>0.62</v>
@@ -4539,7 +5295,7 @@
         <v>21947.13</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K44">
         <v>11</v>
@@ -4581,10 +5337,25 @@
         <v>-0.24</v>
       </c>
       <c r="X44" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y44">
+        <v>0.67</v>
+      </c>
+      <c r="Z44">
+        <v>218</v>
+      </c>
+      <c r="AA44">
+        <v>9.27</v>
       </c>
       <c r="AC44" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4592,22 +5363,25 @@
       <c r="AG44">
         <v>4.614035129547119</v>
       </c>
-      <c r="AH44" t="s">
-        <v>145</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688521</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1</v>
@@ -4625,7 +5399,7 @@
         <v>113405.95</v>
       </c>
       <c r="J45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45">
         <v>10</v>
@@ -4667,10 +5441,25 @@
         <v>-0.02</v>
       </c>
       <c r="X45" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y45">
+        <v>-4.31</v>
+      </c>
+      <c r="Z45">
+        <v>180.55</v>
+      </c>
+      <c r="AA45">
+        <v>0.6</v>
       </c>
       <c r="AC45" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4678,22 +5467,25 @@
       <c r="AG45">
         <v>2.65260648727417</v>
       </c>
-      <c r="AH45" t="s">
-        <v>145</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688766</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -4711,7 +5503,7 @@
         <v>112961.48</v>
       </c>
       <c r="J46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4752,8 +5544,23 @@
       <c r="W46">
         <v>0.71</v>
       </c>
+      <c r="Y46">
+        <v>-0.46</v>
+      </c>
+      <c r="Z46">
+        <v>114.44</v>
+      </c>
+      <c r="AA46">
+        <v>8.369999999999999</v>
+      </c>
       <c r="AC46" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4761,8 +5568,11 @@
       <c r="AG46">
         <v>14.61306285858154</v>
       </c>
-      <c r="AH46" t="s">
-        <v>146</v>
+      <c r="AH46">
+        <v>1</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
